--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3042.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3042.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3042.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3042.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.5142127275466919</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.098735332489014</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.159793853759766</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.505792498588562</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>0.878449022769928</v>
       </c>
     </row>
   </sheetData>
